--- a/QuestAnalyse/resExcel/DATAUPDATES2.XLSX
+++ b/QuestAnalyse/resExcel/DATAUPDATES2.XLSX
@@ -475,25 +475,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -504,71 +504,71 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -579,103 +579,103 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -683,28 +683,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -712,155 +712,155 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -868,155 +868,155 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
         <v>7</v>
       </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
         <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25"/>
@@ -2010,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,157 +2029,157 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Pragmatic Quality</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hedonic Quality</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Correlation</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Correlation</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="D5" t="n">
         <v>1.2</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.008677626681257804</v>
-      </c>
       <c r="E5" t="n">
+        <v>-0.08074773205974514</v>
+      </c>
+      <c r="G5" t="n">
         <v>5.6</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.1243287610563889</v>
+      <c r="H5" t="n">
+        <v>0.03293056850180311</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="D6" t="n">
         <v>1.3</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.3672293178701065</v>
-      </c>
       <c r="E6" t="n">
+        <v>0.1047759183914409</v>
+      </c>
+      <c r="G6" t="n">
         <v>5.7</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2304552197285867</v>
+      <c r="H6" t="n">
+        <v>0.1877928722670046</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.1909077869876714</v>
-      </c>
       <c r="E7" t="n">
+        <v>0.3152472035118743</v>
+      </c>
+      <c r="G7" t="n">
         <v>5.8</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.2244086638245499</v>
+      <c r="H7" t="n">
+        <v>-0.007531953045607373</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="D8" t="n">
         <v>2.3</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1508403427096479</v>
-      </c>
       <c r="E8" t="n">
+        <v>0.1386927266595266</v>
+      </c>
+      <c r="G8" t="n">
         <v>6.7</v>
       </c>
-      <c r="F8" t="n">
-        <v>-0.08059803133964884</v>
+      <c r="H8" t="n">
+        <v>-0.5113698287100807</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
+      <c r="D9" t="n">
         <v>2.4</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.16</v>
-      </c>
       <c r="E9" t="n">
+        <v>0.07977988287317718</v>
+      </c>
+      <c r="G9" t="n">
         <v>6.8</v>
       </c>
-      <c r="F9" t="n">
-        <v>-0.1664131533525076</v>
+      <c r="H9" t="n">
+        <v>0.10268828147016</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="D10" t="n">
         <v>3.4</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.06871615612328408</v>
-      </c>
       <c r="E10" t="n">
+        <v>-0.03851797514070113</v>
+      </c>
+      <c r="G10" t="n">
         <v>7.8</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.06347346356127187</v>
+      <c r="H10" t="n">
+        <v>0.02242160582147941</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.09120006717235156</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0.08653833737259546</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0.06594248724644015</v>
+      <c r="H11" t="n">
+        <v>-0.02884474228254016</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.2864323264513249</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0.2748088472750062</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0.2202069642006288</v>
+      <c r="H12" t="n">
+        <v>-0.1263090227584408</v>
       </c>
     </row>
   </sheetData>
@@ -2264,37 +2264,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3</v>
-      </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5">
@@ -2302,89 +2302,89 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="n">
         <v>-3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>-1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="L6" t="n">
         <v>-0.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0.75</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
         <v>-1</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-2</v>
-      </c>
       <c r="E7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2396,185 +2396,185 @@
         <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="n">
         <v>-1</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>-1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.375</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>-1</v>
       </c>
-      <c r="B9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>-1</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>1.25</v>
-      </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.125</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G11" t="n">
         <v>-1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.375</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-3</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.25</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13">
@@ -2582,209 +2582,209 @@
         <v>-3</v>
       </c>
       <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L13" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.125</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>-1</v>
       </c>
       <c r="C14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>-2</v>
-      </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.25</v>
-      </c>
       <c r="M14" t="n">
-        <v>-0.375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.75</v>
-      </c>
       <c r="L15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="M15" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>-2</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="L16" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.75</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="n">
         <v>-2</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>-3</v>
-      </c>
       <c r="K17" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M17" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="n">
         <v>-3</v>
       </c>
       <c r="D18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E18" t="n">
         <v>-3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>-3</v>
-      </c>
       <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" t="n">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
@@ -2792,206 +2792,206 @@
         <v>-1</v>
       </c>
       <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
       <c r="D19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
-        <v>-2</v>
-      </c>
       <c r="H19" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1</v>
       </c>
-      <c r="B20" t="n">
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>-1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.75</v>
-      </c>
       <c r="M20" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-3</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.5</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="B22" t="n">
-        <v>-1</v>
-      </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>-3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1</v>
       </c>
       <c r="F22" t="n">
         <v>-3</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K22" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>-1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G23" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23" t="n">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="L23" t="n">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" t="n">
         <v>-3</v>
       </c>
-      <c r="B24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
       <c r="K24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L24" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.125</v>
@@ -15825,37 +15825,33 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3</v>
-      </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-1</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -15863,25 +15859,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="n">
         <v>-3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -15895,55 +15891,55 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>-1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>1</v>
       </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
         <v>-1</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-2</v>
-      </c>
       <c r="E7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -15963,128 +15959,124 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="n">
         <v>-1</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>-1</v>
       </c>
-      <c r="B9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G11" t="n">
         <v>-1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -16099,33 +16091,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-3</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -16133,157 +16129,159 @@
         <v>-3</v>
       </c>
       <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>-1</v>
       </c>
       <c r="C14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>-2</v>
-      </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="B15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="M15" t="n">
         <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>-2</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="n">
         <v>-2</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-3</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -16293,35 +16291,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="n">
         <v>-3</v>
       </c>
       <c r="D18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E18" t="n">
         <v>-3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>-3</v>
-      </c>
       <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -16329,25 +16329,25 @@
         <v>-1</v>
       </c>
       <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
       <c r="D19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
-        <v>-2</v>
-      </c>
       <c r="H19" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -16361,94 +16361,94 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1</v>
       </c>
-      <c r="B20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
       <c r="G20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="B22" t="n">
-        <v>-1</v>
-      </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>-3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1</v>
       </c>
       <c r="F22" t="n">
         <v>-3</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -16458,59 +16458,61 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>-1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G23" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" t="n">
         <v>-3</v>
       </c>
-      <c r="B24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -29320,7 +29322,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.25</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -29340,7 +29342,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.02380952380952381</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -29360,7 +29362,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.125</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -29447,7 +29449,7 @@
         <v>0.76</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.25</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="27">
@@ -29475,7 +29477,7 @@
         <v>0.9099999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-0.02380952380952381</v>
       </c>
     </row>
     <row r="28">
@@ -29503,7 +29505,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.125</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -29696,22 +29698,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5238095238095238</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="C5" t="n">
-        <v>1.778174558895937</v>
+        <v>2.022492568707285</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.284809523809524</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2371904761904762</v>
+      <c r="E5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -29719,22 +29721,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.25</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="K5" t="n">
-        <v>1.092588669170608</v>
+        <v>1.07418296747763</v>
       </c>
       <c r="L5" t="n">
         <v>21</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.7170000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.217</v>
+      <c r="M5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6">
@@ -29742,22 +29744,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C6" t="n">
-        <v>1.851640199545103</v>
+        <v>1.909874092085404</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.9348571428571428</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6491428571428572</v>
+      <c r="E6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -29765,22 +29767,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0.02380952380952381</v>
       </c>
       <c r="K6" t="n">
-        <v>1.11242977306435</v>
+        <v>0.8437444885181544</v>
       </c>
       <c r="L6" t="n">
         <v>21</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.476</v>
+      <c r="M6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7">
@@ -29788,22 +29790,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C7" t="n">
-        <v>1.841324574993825</v>
+        <v>2.11232212550661</v>
       </c>
       <c r="D7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.6927619047619048</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8832380952380953</v>
+      <c r="E7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -29811,22 +29813,22 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.125</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7115124735378854</v>
+        <v>0.5008920613693704</v>
       </c>
       <c r="L7" t="n">
         <v>21</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.429</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.179</v>
+      <c r="M7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8">
@@ -29834,22 +29836,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4285714285714285</v>
+        <v>-0.2380952380952381</v>
       </c>
       <c r="C8" t="n">
-        <v>2.314550249431379</v>
+        <v>1.609495632325913</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-1.418571428571429</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5614285714285714</v>
+      <c r="E8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9">
@@ -29857,22 +29859,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5238095238095238</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>1.913610399716923</v>
+        <v>1.748468717805056</v>
       </c>
       <c r="D9" t="n">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.2941904761904761</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.341809523809524</v>
+      <c r="E9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10">
@@ -29880,22 +29882,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.09523809523809523</v>
+        <v>-0.3809523809523809</v>
       </c>
       <c r="C10" t="n">
-        <v>2.321739905862883</v>
+        <v>2.108937895628757</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-1.088238095238095</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8977619047619048</v>
+      <c r="E10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11">
@@ -29903,22 +29905,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C11" t="n">
-        <v>1.99761762869579</v>
+        <v>1.631534480758762</v>
       </c>
       <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1.092095238095238</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.615904761904762</v>
+      <c r="E11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12">
@@ -29926,22 +29928,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1904761904761905</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C12" t="n">
-        <v>1.990453406112477</v>
+        <v>1.627150591561533</v>
       </c>
       <c r="D12" t="n">
         <v>21</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1.04147619047619</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6605238095238095</v>
+      <c r="E12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -33716,13 +33718,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5238095238095238</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161904761904762</v>
+        <v>4.09047619047619</v>
       </c>
       <c r="D4" t="n">
-        <v>1.778174558895937</v>
+        <v>2.022492568707285</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
@@ -33748,7 +33750,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.25</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="5">
@@ -33756,13 +33758,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C5" t="n">
-        <v>3.428571428571429</v>
+        <v>3.647619047619048</v>
       </c>
       <c r="D5" t="n">
-        <v>1.851640199545103</v>
+        <v>1.909874092085404</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -33788,7 +33790,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0.02380952380952381</v>
       </c>
     </row>
     <row r="6">
@@ -33796,13 +33798,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C6" t="n">
-        <v>3.39047619047619</v>
+        <v>4.461904761904761</v>
       </c>
       <c r="D6" t="n">
-        <v>1.841324574993825</v>
+        <v>2.11232212550661</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
@@ -33828,7 +33830,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>-0.125</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -33836,13 +33838,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4285714285714285</v>
+        <v>-0.2380952380952381</v>
       </c>
       <c r="C7" t="n">
-        <v>5.357142857142858</v>
+        <v>2.590476190476191</v>
       </c>
       <c r="D7" t="n">
-        <v>2.314550249431379</v>
+        <v>1.609495632325913</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -33868,13 +33870,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5238095238095238</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="C8" t="n">
-        <v>3.661904761904761</v>
+        <v>3.057142857142857</v>
       </c>
       <c r="D8" t="n">
-        <v>1.913610399716923</v>
+        <v>1.748468717805056</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
@@ -33900,13 +33902,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.09523809523809523</v>
+        <v>-0.3809523809523809</v>
       </c>
       <c r="C9" t="n">
-        <v>5.390476190476191</v>
+        <v>4.447619047619048</v>
       </c>
       <c r="D9" t="n">
-        <v>2.321739905862883</v>
+        <v>2.108937895628757</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
@@ -33932,13 +33934,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C10" t="n">
-        <v>3.990476190476191</v>
+        <v>2.661904761904762</v>
       </c>
       <c r="D10" t="n">
-        <v>1.99761762869579</v>
+        <v>1.631534480758762</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
@@ -33964,13 +33966,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1904761904761905</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C11" t="n">
-        <v>3.961904761904762</v>
+        <v>2.647619047619048</v>
       </c>
       <c r="D11" t="n">
-        <v>1.990453406112477</v>
+        <v>1.627150591561533</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
@@ -34047,7 +34049,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.092588669170608</v>
+        <v>1.07418296747763</v>
       </c>
     </row>
     <row r="6">
@@ -34057,7 +34059,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.11242977306435</v>
+        <v>0.8437444885181544</v>
       </c>
     </row>
     <row r="9">
@@ -34084,10 +34086,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.9999375</v>
+        <v>12.56563392857142</v>
       </c>
       <c r="C10" t="n">
-        <v>13.476375</v>
+        <v>7.752642857142857</v>
       </c>
     </row>
     <row r="11">
@@ -34097,10 +34099,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.34364</v>
+        <v>17.73081333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>19.01592</v>
+        <v>10.93941333333333</v>
       </c>
     </row>
     <row r="12">
@@ -34110,10 +34112,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.94918000000001</v>
+        <v>18.95489142857143</v>
       </c>
       <c r="C12" t="n">
-        <v>32.94918000000001</v>
+        <v>18.95489142857143</v>
       </c>
     </row>
     <row r="13">
@@ -34123,10 +34125,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.99975</v>
+        <v>50.2625357142857</v>
       </c>
       <c r="C13" t="n">
-        <v>53.9055</v>
+        <v>31.01057142857143</v>
       </c>
     </row>
     <row r="14">
@@ -34136,10 +34138,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.37455999999999</v>
+        <v>70.92325333333332</v>
       </c>
       <c r="C14" t="n">
-        <v>76.06368000000002</v>
+        <v>43.75765333333334</v>
       </c>
     </row>
     <row r="15">
@@ -34149,10 +34151,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.13724</v>
+        <v>122.8898228571429</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7967200000001</v>
+        <v>75.81956571428572</v>
       </c>
     </row>
     <row r="16">
@@ -34162,10 +34164,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.9984375</v>
+        <v>314.1408482142856</v>
       </c>
       <c r="C16" t="n">
-        <v>336.9093749999999</v>
+        <v>193.8160714285714</v>
       </c>
     </row>
     <row r="17">
@@ -34175,10 +34177,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>458.591</v>
+        <v>443.2703333333332</v>
       </c>
       <c r="C17" t="n">
-        <v>475.398</v>
+        <v>273.4853333333333</v>
       </c>
     </row>
     <row r="18">
@@ -34188,10 +34190,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.60775</v>
+        <v>768.0613928571428</v>
       </c>
       <c r="C18" t="n">
-        <v>823.7295000000003</v>
+        <v>473.8722857142857</v>
       </c>
     </row>
   </sheetData>
